--- a/biology/Biologie cellulaire et moléculaire/Acide_lysophosphatidique/Acide_lysophosphatidique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Acide_lysophosphatidique/Acide_lysophosphatidique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un acide lysophosphatidique (LPA) est un dérivé de phospholipide jouant un rôle dans la signalisation lipidique. Ces molécules peuvent être produites de plusieurs façons, mais la biosynthèse la mieux décrite est celle par l'autotaxine, une lysophospholipase D qui clive le groupe choline d'une 2-lysophosphatidylcholine (LPC) pour donner un LPA :
